--- a/datasets/Exercices_Statistiques_enonce.xlsx
+++ b/datasets/Exercices_Statistiques_enonce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jemsprod-my.sharepoint.com/personal/asardellitti_jems-group_com/Documents/Bureau/bial/wetransfer_orsys_ues_2023-11-21_0839/Orsys_UES/Materiel_UES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jemsprod-my.sharepoint.com/personal/asardellitti_jems-group_com/Documents/Bureau/STA/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{37F85C81-DEB9-483E-AD19-E6A24A0C1D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2AF0997-CC93-4D0B-BFD1-3F9743A696AF}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="13_ncr:1_{37F85C81-DEB9-483E-AD19-E6A24A0C1D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{031225D8-3103-41CF-B022-B277D64E037B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7830" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
-    <pivotCache cacheId="11" r:id="rId6"/>
-    <pivotCache cacheId="12" r:id="rId7"/>
+    <pivotCache cacheId="85" r:id="rId5"/>
+    <pivotCache cacheId="86" r:id="rId6"/>
+    <pivotCache cacheId="87" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8519" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8528" uniqueCount="1414">
   <si>
     <t>Id</t>
   </si>
@@ -4340,6 +4340,15 @@
   </si>
   <si>
     <t>Construire un nuage de point de variable Petal_Length et Sepal_Width</t>
+  </si>
+  <si>
+    <t>Avec un TCD, calculer la moyenne et variance de Length Sepal pour chaque espèce</t>
+  </si>
+  <si>
+    <t>Moyenne de Sepal_Length</t>
+  </si>
+  <si>
+    <t>Varp de Sepal_Length</t>
   </si>
 </sst>
 </file>
@@ -5147,7 +5156,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -5281,6 +5293,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Iris_correction!$B$2:$B$151</c:f>
@@ -6429,7 +6455,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Petal_Length et Sepal_Width</a:t>
+              <a:t>Petal_Length  et Sepal_Width</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6474,17 +6500,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Iris_correction!$F$1</c:f>
+              <c:f>Iris_correction!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Species</c:v>
+                  <c:v>Petal_Length</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -6505,7 +6531,480 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
+            <c:numRef>
+              <c:f>Iris_correction!$C$2:$C$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Iris_correction!$D$2:$D$151</c:f>
               <c:numCache>
@@ -6963,470 +7462,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Iris_correction!$C$2:$C$151</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="150"/>
-                <c:pt idx="0">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-55F9-4D4B-BFA1-EC3FE470B91E}"/>
+              <c16:uniqueId val="{00000000-4CF2-4FAA-9C7B-DA52C2B71952}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7438,14 +7478,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1799813488"/>
-        <c:axId val="1799813904"/>
+        <c:axId val="858287904"/>
+        <c:axId val="858285024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1799813488"/>
+        <c:axId val="858287904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7500,12 +7539,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799813904"/>
+        <c:crossAx val="858285024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1799813904"/>
+        <c:axId val="858285024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7562,7 +7601,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799813488"/>
+        <c:crossAx val="858287904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15107,7 +15146,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>31242</xdr:rowOff>
     </xdr:to>
@@ -15579,44 +15618,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Graphique 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE8D215-F023-4B29-B191-B13725CFB0DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -15762,6 +15763,42 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D78728-A9A2-9024-586E-AAC98A5B12B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16277,10 +16314,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anthony SARDELLITTI" refreshedDate="44175.870670949073" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="152" xr:uid="{1096F353-864A-4508-947A-2FCCB4E39046}">
   <cacheSource type="worksheet">
@@ -27255,7 +27288,84 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09B93F31-15A1-4128-9A64-0751BE71777C}" name="Tableau croisé dynamique3" cacheId="11" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Moyenne" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BBA25E8-9ECB-4B87-AAB4-C9988B5FDCC5}" name="Tableau croisé dynamique42" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Moyenne" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I71:K75" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Moyenne de Sepal_Length" fld="0" subtotal="average" baseField="4" baseItem="0"/>
+    <dataField name="Varp de Sepal_Length" fld="0" subtotal="varp" baseField="4" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09B93F31-15A1-4128-9A64-0751BE71777C}" name="Tableau croisé dynamique3" cacheId="86" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Moyenne" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I61:M66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0">
@@ -27323,7 +27433,7 @@
     <dataField name="Moy. Petal_Width" fld="3" subtotal="average" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -27339,8 +27449,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADC4141F-390F-4E94-B0DB-C9F4CEA00FC3}" name="Tableau croisé dynamique2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADC4141F-390F-4E94-B0DB-C9F4CEA00FC3}" name="Tableau croisé dynamique2" cacheId="86" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I52:J57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -27397,8 +27507,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABF5C64C-EFE0-458C-AA10-1F250AC653CC}" name="Tableau croisé dynamique1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Species">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABF5C64C-EFE0-458C-AA10-1F250AC653CC}" name="Tableau croisé dynamique1" cacheId="85" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Species">
   <location ref="I44:M48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -27458,7 +27568,7 @@
     </dataField>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2" selected="0">
@@ -27481,8 +27591,78 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{025AFE11-5061-4C2C-B32B-58F401D6C301}" name="Tableau croisé dynamique7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Pclass">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FE83C592-6D56-43E3-8F24-EC81B9FC81BA}" name="Tableau croisé dynamique8" cacheId="87" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Pclass">
+  <location ref="I26:J29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Effectif" fld="4" subtotal="count" baseField="4" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{025AFE11-5061-4C2C-B32B-58F401D6C301}" name="Tableau croisé dynamique7" cacheId="87" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Pclass">
   <location ref="I15:K19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -27542,7 +27722,7 @@
     <dataField name="Fréquence" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -27656,8 +27836,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DACB63F9-A856-4ACD-B0E0-21D1F3184380}" name="Tableau croisé dynamique10" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Pclass" colHeaderCaption="Survived">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DACB63F9-A856-4ACD-B0E0-21D1F3184380}" name="Tableau croisé dynamique10" cacheId="87" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Pclass" colHeaderCaption="Survived">
   <location ref="I50:L56" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -27758,8 +27938,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12338C9E-4DAE-4AEA-B232-672F3ECEA06D}" name="Tableau croisé dynamique9" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Pclass" colHeaderCaption="Survived">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12338C9E-4DAE-4AEA-B232-672F3ECEA06D}" name="Tableau croisé dynamique9" cacheId="87" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Pclass" colHeaderCaption="Survived">
   <location ref="I37:L42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -27865,80 +28045,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FE83C592-6D56-43E3-8F24-EC81B9FC81BA}" name="Tableau croisé dynamique8" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Pclass">
-  <location ref="I26:J29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Effectif" fld="4" subtotal="count" baseField="4" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -27976,7 +28086,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -28082,7 +28192,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -28224,7 +28334,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -28235,10 +28345,10 @@
   <dimension ref="A1:AF151"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16:M21"/>
+      <selection pane="bottomRight" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30710,6 +30820,9 @@
         <v>3</v>
       </c>
       <c r="H72" s="5"/>
+      <c r="I72" s="9" t="s">
+        <v>1411</v>
+      </c>
       <c r="O72" s="5"/>
       <c r="Q72" s="15">
         <v>5.0999999999999996</v>
@@ -32453,10 +32566,10 @@
   <dimension ref="A1:Z1314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
+      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57870,10 +57983,10 @@
   <dimension ref="A1:AF151"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57885,11 +57998,10 @@
     <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.85546875" customWidth="1"/>
     <col min="15" max="15" width="2.140625" customWidth="1"/>
     <col min="16" max="16" width="3.5703125" customWidth="1"/>
@@ -60550,6 +60662,9 @@
         <v>3</v>
       </c>
       <c r="H69" s="5"/>
+      <c r="I69" s="9" t="s">
+        <v>1411</v>
+      </c>
       <c r="O69" s="5"/>
       <c r="Q69" s="15">
         <v>5</v>
@@ -60614,6 +60729,15 @@
         <v>3</v>
       </c>
       <c r="H71" s="5"/>
+      <c r="I71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1413</v>
+      </c>
       <c r="O71" s="5"/>
       <c r="Q71" s="15">
         <v>4.8</v>
@@ -60646,6 +60770,15 @@
         <v>3</v>
       </c>
       <c r="H72" s="5"/>
+      <c r="I72" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="10">
+        <v>5.0059999999999993</v>
+      </c>
+      <c r="K72" s="10">
+        <v>0.12176399999999848</v>
+      </c>
       <c r="O72" s="5"/>
       <c r="Q72" s="15">
         <v>5.0999999999999996</v>
@@ -60678,6 +60811,15 @@
         <v>3</v>
       </c>
       <c r="H73" s="5"/>
+      <c r="I73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J73" s="10">
+        <v>5.9359999999999999</v>
+      </c>
+      <c r="K73" s="10">
+        <v>0.26110400000000955</v>
+      </c>
       <c r="O73" s="5"/>
       <c r="Q73" s="15">
         <v>4.5999999999999996</v>
@@ -60710,6 +60852,15 @@
         <v>3</v>
       </c>
       <c r="H74" s="5"/>
+      <c r="I74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J74" s="10">
+        <v>6.5879999999999983</v>
+      </c>
+      <c r="K74" s="10">
+        <v>0.39625600000003469</v>
+      </c>
       <c r="O74" s="5"/>
       <c r="Q74" s="15">
         <v>5.3</v>
@@ -60742,6 +60893,15 @@
         <v>3</v>
       </c>
       <c r="H75" s="5"/>
+      <c r="I75" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" s="10">
+        <v>5.8433333333333346</v>
+      </c>
+      <c r="K75" s="10">
+        <v>0.68112222222219121</v>
+      </c>
       <c r="O75" s="5"/>
       <c r="Q75" s="17">
         <v>5</v>
@@ -62314,8 +62474,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
